--- a/medicine/Sexualité et sexologie/Killer_Inside/Killer_Inside.xlsx
+++ b/medicine/Sexualité et sexologie/Killer_Inside/Killer_Inside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Killer Inside (The Clovehitch Killer) est un film américain réalisé par Duncan Skiles, sorti en 2018. Il s'inspire de l'histoire réelle du tueur en série américain Dennis Rader[1],[2], auteur reconnu de dix meurtres, tous commis dans les environs de Wichita (Kansas) entre 1974 et 1991.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Killer Inside (The Clovehitch Killer) est un film américain réalisé par Duncan Skiles, sorti en 2018. Il s'inspire de l'histoire réelle du tueur en série américain Dennis Rader auteur reconnu de dix meurtres, tous commis dans les environs de Wichita (Kansas) entre 1974 et 1991.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chef scout et paroissien assidu, Tyler est un adolescent dont la maturité fait la fierté de ses parents, couple pieux et respecté de tous dans cette bourgade du Kentucky. Le quotidien de Tyler va pourtant vaciller, le jour où une vague de meurtres effroyables s'abat sur la ville. Alors que la police évoque un tueur en série, le jeune garçon fait une découverte des plus troublantes dans la camionnette de son père. Un doute glaçant l'assaille : et si le tueur qui sévit vivait dans sa propre maison ? Malgré la peur, Tyler se lance alors dans une enquête sans retour.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et québécois : The Clovehitch Killer
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Charlie Plummer : Tyler Burnside
@@ -636,9 +654,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu à Middletown en Kentucky[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Middletown en Kentucky.
 </t>
         </is>
       </c>
